--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H2">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I2">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J2">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N2">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O2">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P2">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q2">
-        <v>44.66935687849589</v>
+        <v>23.204904987398</v>
       </c>
       <c r="R2">
-        <v>402.024211906463</v>
+        <v>208.844144886582</v>
       </c>
       <c r="S2">
-        <v>0.005173044005961707</v>
+        <v>0.003869296237771397</v>
       </c>
       <c r="T2">
-        <v>0.006045324403426562</v>
+        <v>0.004113474891411902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H3">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I3">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J3">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
         <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P3">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q3">
-        <v>98.2125532490461</v>
+        <v>55.84116016031834</v>
       </c>
       <c r="R3">
-        <v>883.912979241415</v>
+        <v>502.570441442865</v>
       </c>
       <c r="S3">
-        <v>0.0113737446741651</v>
+        <v>0.009311220668149676</v>
       </c>
       <c r="T3">
-        <v>0.01329158927661018</v>
+        <v>0.009898821406574389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H4">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I4">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J4">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N4">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O4">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P4">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q4">
-        <v>0.3458662953751111</v>
+        <v>0.2430515685656666</v>
       </c>
       <c r="R4">
-        <v>3.112796658376</v>
+        <v>2.187464117091</v>
       </c>
       <c r="S4">
-        <v>4.005389132915238E-05</v>
+        <v>4.052757468071079E-05</v>
       </c>
       <c r="T4">
-        <v>4.680779178086754E-05</v>
+        <v>4.308513761017798E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H5">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I5">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J5">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N5">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O5">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P5">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q5">
-        <v>48.57509064334766</v>
+        <v>7.2528995987715</v>
       </c>
       <c r="R5">
-        <v>291.450543860086</v>
+        <v>43.517397592629</v>
       </c>
       <c r="S5">
-        <v>0.005625357046780867</v>
+        <v>0.001209382979404608</v>
       </c>
       <c r="T5">
-        <v>0.004382604412888589</v>
+        <v>0.0008571354606761074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H6">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I6">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J6">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N6">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O6">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P6">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q6">
-        <v>0.08623987377844444</v>
+        <v>0.02144002986366667</v>
       </c>
       <c r="R6">
-        <v>0.776158864006</v>
+        <v>0.192960268773</v>
       </c>
       <c r="S6">
-        <v>9.98721927736646E-06</v>
+        <v>3.575012564552371E-06</v>
       </c>
       <c r="T6">
-        <v>1.167126750714956E-05</v>
+        <v>3.800619936311293E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J7">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N7">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O7">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P7">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q7">
-        <v>1546.90249379058</v>
+        <v>1413.336592264022</v>
       </c>
       <c r="R7">
-        <v>13922.12244411522</v>
+        <v>12720.0293303762</v>
       </c>
       <c r="S7">
-        <v>0.1791428225635118</v>
+        <v>0.235666466297608</v>
       </c>
       <c r="T7">
-        <v>0.2093499447702029</v>
+        <v>0.250538607615459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J8">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
         <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P8">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q8">
-        <v>3401.106578626998</v>
+        <v>3401.106578626999</v>
       </c>
       <c r="R8">
-        <v>30609.95920764298</v>
+        <v>30609.95920764299</v>
       </c>
       <c r="S8">
-        <v>0.3938734566530825</v>
+        <v>0.5671166891692855</v>
       </c>
       <c r="T8">
-        <v>0.4602885296592777</v>
+        <v>0.6029055719812607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J9">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N9">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O9">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P9">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q9">
-        <v>11.97737044410933</v>
+        <v>14.80349416847767</v>
       </c>
       <c r="R9">
-        <v>107.796333996984</v>
+        <v>133.231447516299</v>
       </c>
       <c r="S9">
-        <v>0.001387068646446315</v>
+        <v>0.002468405034326505</v>
       </c>
       <c r="T9">
-        <v>0.001620956622044215</v>
+        <v>0.002624178017546949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J10">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N10">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O10">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P10">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q10">
-        <v>1682.158287093479</v>
+        <v>441.7509319054636</v>
       </c>
       <c r="R10">
-        <v>10092.94972256088</v>
+        <v>2650.505591432781</v>
       </c>
       <c r="S10">
-        <v>0.1948064501532341</v>
+        <v>0.0736596516892475</v>
       </c>
       <c r="T10">
-        <v>0.1517698522957386</v>
+        <v>0.05220538122256973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J11">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N11">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O11">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P11">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q11">
-        <v>2.986491974239334</v>
+        <v>1.305843689599667</v>
       </c>
       <c r="R11">
-        <v>26.878427768154</v>
+        <v>11.752593206397</v>
       </c>
       <c r="S11">
-        <v>0.0003458579994382882</v>
+        <v>0.0002177425883893729</v>
       </c>
       <c r="T11">
-        <v>0.0004041766901103086</v>
+        <v>0.0002314836122877497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H12">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I12">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J12">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N12">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O12">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P12">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q12">
-        <v>9.791648151636556</v>
+        <v>8.238921477082666</v>
       </c>
       <c r="R12">
-        <v>88.124833364729</v>
+        <v>74.150293293744</v>
       </c>
       <c r="S12">
-        <v>0.001133945736382294</v>
+        <v>0.001373796957664016</v>
       </c>
       <c r="T12">
-        <v>0.001325152042861653</v>
+        <v>0.001460492798686267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H13">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I13">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J13">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N13">
         <v>161.160385</v>
       </c>
       <c r="O13">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P13">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q13">
-        <v>21.52846677654944</v>
+        <v>19.82645195056445</v>
       </c>
       <c r="R13">
-        <v>193.756200988945</v>
+        <v>178.43806755508</v>
       </c>
       <c r="S13">
-        <v>0.002493156691709344</v>
+        <v>0.00330595690791822</v>
       </c>
       <c r="T13">
-        <v>0.002913553600662778</v>
+        <v>0.003514585055561408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H14">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I14">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J14">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N14">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O14">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P14">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q14">
-        <v>0.07581486075644445</v>
+        <v>0.08629566849688887</v>
       </c>
       <c r="R14">
-        <v>0.682333746808</v>
+        <v>0.7766610164719999</v>
       </c>
       <c r="S14">
-        <v>8.779925174784658E-06</v>
+        <v>1.438935025298808E-05</v>
       </c>
       <c r="T14">
-        <v>1.026039907223203E-05</v>
+        <v>1.529741517116039E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H15">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I15">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J15">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N15">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O15">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P15">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q15">
-        <v>10.64779593328967</v>
+        <v>2.575148241628</v>
       </c>
       <c r="R15">
-        <v>63.88677559973799</v>
+        <v>15.450889449768</v>
       </c>
       <c r="S15">
-        <v>0.001233094021909327</v>
+        <v>0.0004293924671721799</v>
       </c>
       <c r="T15">
-        <v>0.0009606791634708605</v>
+        <v>0.0003043266826375135</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H16">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I16">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J16">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N16">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O16">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P16">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q16">
-        <v>0.01890402189977778</v>
+        <v>0.007612301046222221</v>
       </c>
       <c r="R16">
-        <v>0.170136197098</v>
+        <v>0.068510709416</v>
       </c>
       <c r="S16">
-        <v>2.189226440918195E-06</v>
+        <v>1.269311286339107E-06</v>
       </c>
       <c r="T16">
-        <v>2.558374530094306E-06</v>
+        <v>1.349413377753926E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H17">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I17">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J17">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N17">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O17">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P17">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q17">
-        <v>394.571338949994</v>
+        <v>155.949311771774</v>
       </c>
       <c r="R17">
-        <v>2367.428033699964</v>
+        <v>935.695870630644</v>
       </c>
       <c r="S17">
-        <v>0.04569429789266043</v>
+        <v>0.02600373005833304</v>
       </c>
       <c r="T17">
-        <v>0.0355995237142892</v>
+        <v>0.01842982704603582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H18">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I18">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J18">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N18">
         <v>161.160385</v>
       </c>
       <c r="O18">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P18">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q18">
-        <v>867.5266747757699</v>
+        <v>375.2823164011384</v>
       </c>
       <c r="R18">
-        <v>5205.160048654619</v>
+        <v>2251.69389840683</v>
       </c>
       <c r="S18">
-        <v>0.100466046045116</v>
+        <v>0.0625763585647796</v>
       </c>
       <c r="T18">
-        <v>0.07827110938580488</v>
+        <v>0.04435023217563506</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H19">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I19">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J19">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N19">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O19">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P19">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q19">
-        <v>3.055090487088</v>
+        <v>1.633435899153666</v>
       </c>
       <c r="R19">
-        <v>18.330542922528</v>
+        <v>9.800615394922</v>
       </c>
       <c r="S19">
-        <v>0.000353802217813201</v>
+        <v>0.0002723668716880499</v>
       </c>
       <c r="T19">
-        <v>0.0002756403101497756</v>
+        <v>0.0001930367038505696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H20">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I20">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J20">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N20">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O20">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P20">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q20">
-        <v>429.071289450102</v>
+        <v>48.7433454863295</v>
       </c>
       <c r="R20">
-        <v>1716.285157800408</v>
+        <v>194.973381945318</v>
       </c>
       <c r="S20">
-        <v>0.04968964894788181</v>
+        <v>0.008127697286805156</v>
       </c>
       <c r="T20">
-        <v>0.02580814846570393</v>
+        <v>0.003840270990413852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H21">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I21">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J21">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N21">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O21">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P21">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q21">
-        <v>0.761770145028</v>
+        <v>0.1440884116276667</v>
       </c>
       <c r="R21">
-        <v>4.570620870168</v>
+        <v>0.864530469766</v>
       </c>
       <c r="S21">
-        <v>8.821865274166817E-05</v>
+        <v>2.402598714884472E-05</v>
       </c>
       <c r="T21">
-        <v>6.872940750062611E-05</v>
+        <v>1.702812584079996E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H22">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I22">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J22">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N22">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O22">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P22">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q22">
-        <v>14.18942250631122</v>
+        <v>6.925875177668667</v>
       </c>
       <c r="R22">
-        <v>127.704802556801</v>
+        <v>62.332876599018</v>
       </c>
       <c r="S22">
-        <v>0.001643240739820632</v>
+        <v>0.001154853371853112</v>
       </c>
       <c r="T22">
-        <v>0.001920324538839022</v>
+        <v>0.001227732397950558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H23">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I23">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J23">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N23">
         <v>161.160385</v>
       </c>
       <c r="O23">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P23">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q23">
-        <v>31.19766011552277</v>
+        <v>16.66668772212611</v>
       </c>
       <c r="R23">
-        <v>280.778941039705</v>
+        <v>150.000189499135</v>
       </c>
       <c r="S23">
-        <v>0.003612921249339239</v>
+        <v>0.002779082790227122</v>
       </c>
       <c r="T23">
-        <v>0.004222133229703395</v>
+        <v>0.002954461632366128</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H24">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I24">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J24">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N24">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O24">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P24">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q24">
-        <v>0.1098659873057778</v>
+        <v>0.07254262952322223</v>
       </c>
       <c r="R24">
-        <v>0.988793885752</v>
+        <v>0.6528836657089999</v>
       </c>
       <c r="S24">
-        <v>1.272329907585533E-05</v>
+        <v>1.209610311460801E-05</v>
       </c>
       <c r="T24">
-        <v>1.486870598949477E-05</v>
+        <v>1.28594486925426E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H25">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I25">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J25">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N25">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O25">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P25">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q25">
-        <v>15.43009643715367</v>
+        <v>2.1647439334285</v>
       </c>
       <c r="R25">
-        <v>92.580578622922</v>
+        <v>12.988463600571</v>
       </c>
       <c r="S25">
-        <v>0.001786920015498477</v>
+        <v>0.0003609597006280425</v>
       </c>
       <c r="T25">
-        <v>0.001392154041117105</v>
+        <v>0.0002558257926166975</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H26">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I26">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J26">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N26">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O26">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P26">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q26">
-        <v>0.02739448452911111</v>
+        <v>0.006399119958555556</v>
       </c>
       <c r="R26">
-        <v>0.246550360762</v>
+        <v>0.057592079627</v>
       </c>
       <c r="S26">
-        <v>3.172485208936384E-06</v>
+        <v>1.067019700969836E-06</v>
       </c>
       <c r="T26">
-        <v>3.707430717966119E-06</v>
+        <v>1.134355830844651E-06</v>
       </c>
     </row>
   </sheetData>
